--- a/nv-verbindungen/n-v-ver-sätze.xlsx
+++ b/nv-verbindungen/n-v-ver-sätze.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Das machte auf mich einen großen Eindruck.</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Jestem bardzo zadowolony ze swojego osiągnięcia.</t>
+  </si>
+  <si>
+    <t>Er hat Angst vor Hunden.</t>
+  </si>
+  <si>
+    <t>On boi się psów. (A)</t>
   </si>
 </sst>
 </file>
@@ -147,37 +153,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A17" sqref="A17:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -621,6 +630,14 @@
       </c>
       <c r="C16" s="16" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="41.4">
+      <c r="A17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/nv-verbindungen/n-v-ver-sätze.xlsx
+++ b/nv-verbindungen/n-v-ver-sätze.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="261">
   <si>
     <t>Das machte auf mich einen großen Eindruck.</t>
   </si>
@@ -51,73 +51,754 @@
     <t>Zweifel haben an D</t>
   </si>
   <si>
-    <t>mieć wątpliwości co do [czegoś]</t>
-  </si>
-  <si>
     <t>Anteil nehmen an D</t>
   </si>
   <si>
-    <t>wziąć w czymś udział</t>
-  </si>
-  <si>
     <t>jdm Bescheid geben über A</t>
   </si>
   <si>
-    <t>poinformować kogoś/dać komuś znać o [czymś]</t>
-  </si>
-  <si>
-    <t>Der Täter drohte ihm mit einer Waffe.</t>
-  </si>
-  <si>
-    <t>Sprawca grozi mu bronią. (prät.)</t>
-  </si>
-  <si>
-    <t>Jedes Kind muss von einer erwachsenen Person begleitet werden.</t>
-  </si>
-  <si>
-    <t>Każdemu dziecku musi towarzyczyć osoba dorosła. (passiv)</t>
-  </si>
-  <si>
-    <t>Jeder stöhnt unter der Hitze.</t>
-  </si>
-  <si>
-    <t>Każdy narzeka z powodu upałów.</t>
-  </si>
-  <si>
-    <t>Meine Eltern sind wütend auf mich.</t>
-  </si>
-  <si>
-    <t>Moi rodzice są na mnie wściekli.</t>
-  </si>
-  <si>
-    <t>Ich bin in dich verliebt.</t>
-  </si>
-  <si>
-    <t>Jestem w tobie zakochany.</t>
-  </si>
-  <si>
-    <t>Wir sind stolz auf unsere Mannschaft.</t>
-  </si>
-  <si>
-    <t>Jesteśmy dumni z naszej drużyny.</t>
-  </si>
-  <si>
-    <t>Haribos sind auch bei Erwachsenen beliebt.</t>
-  </si>
-  <si>
-    <t>Żelki Haribo są lubiane także wśród dorosłych.</t>
-  </si>
-  <si>
-    <t>Ich bin mit meiner Leistung sehr zufrieden.</t>
-  </si>
-  <si>
-    <t>Jestem bardzo zadowolony ze swojego osiągnięcia.</t>
-  </si>
-  <si>
     <t>Er hat Angst vor Hunden.</t>
   </si>
   <si>
     <t>On boi się psów. (A)</t>
+  </si>
+  <si>
+    <t>im Widerspruch stehen zu D</t>
+  </si>
+  <si>
+    <t>być w sprzeczności z [czymś]</t>
+  </si>
+  <si>
+    <t>unter Anklage stehen</t>
+  </si>
+  <si>
+    <t>być oskarżonym</t>
+  </si>
+  <si>
+    <t>etw auf Eis legen</t>
+  </si>
+  <si>
+    <t>zawieszać coś</t>
+  </si>
+  <si>
+    <t>zu Ende bringen</t>
+  </si>
+  <si>
+    <t>zakończyć</t>
+  </si>
+  <si>
+    <t>in Haft nehmen</t>
+  </si>
+  <si>
+    <t>aresztować</t>
+  </si>
+  <si>
+    <t>in Anspruch nehmen</t>
+  </si>
+  <si>
+    <t>wymagać, żądać</t>
+  </si>
+  <si>
+    <t>unter Beweis stellen</t>
+  </si>
+  <si>
+    <t>udowodnić</t>
+  </si>
+  <si>
+    <t>eine Wahl treffen</t>
+  </si>
+  <si>
+    <t>wybierać</t>
+  </si>
+  <si>
+    <t>in Ordnung bringen</t>
+  </si>
+  <si>
+    <t>uporządkować</t>
+  </si>
+  <si>
+    <t>Kritik üben an D</t>
+  </si>
+  <si>
+    <t>krytykować [coś/kogoś]</t>
+  </si>
+  <si>
+    <t>außer Zweifel stehen</t>
+  </si>
+  <si>
+    <t>nie podlegać wątpliwości</t>
+  </si>
+  <si>
+    <t>mieć wątpliwość co do [czegoś]</t>
+  </si>
+  <si>
+    <t>unter Strafe stehen</t>
+  </si>
+  <si>
+    <t>być karalnym</t>
+  </si>
+  <si>
+    <t>eine Chance geben/bieten</t>
+  </si>
+  <si>
+    <t>dać szansę</t>
+  </si>
+  <si>
+    <t>Vorwürfe machen/erheben</t>
+  </si>
+  <si>
+    <t>czynić zarzuty</t>
+  </si>
+  <si>
+    <t>Eindruck machen auf A</t>
+  </si>
+  <si>
+    <t>zrobić wrażenie na [kimś]</t>
+  </si>
+  <si>
+    <t>unter dem Einfluss stehen</t>
+  </si>
+  <si>
+    <t>być pod wpływem</t>
+  </si>
+  <si>
+    <t>unter dem Schutz stehen</t>
+  </si>
+  <si>
+    <t>być pod ochroną</t>
+  </si>
+  <si>
+    <t>eine Schwache/Faible haben für A</t>
+  </si>
+  <si>
+    <t>mieć słabość do [czegoś]</t>
+  </si>
+  <si>
+    <t>in Zweifel ziehen</t>
+  </si>
+  <si>
+    <t>wątpić</t>
+  </si>
+  <si>
+    <t>Untersuchungen anstellen</t>
+  </si>
+  <si>
+    <t>badać</t>
+  </si>
+  <si>
+    <t>jdm etw zur Kenntnis bringen</t>
+  </si>
+  <si>
+    <t>uświadomić komuś coś</t>
+  </si>
+  <si>
+    <t>Wert legen auf A</t>
+  </si>
+  <si>
+    <t>przywiązywać wagę do [czegoś]</t>
+  </si>
+  <si>
+    <t>Unterricht geben/erteilen</t>
+  </si>
+  <si>
+    <t>udzielać lekcji</t>
+  </si>
+  <si>
+    <t>sich Sorgen machen um A</t>
+  </si>
+  <si>
+    <t>być zaniepokojonym o [coś]</t>
+  </si>
+  <si>
+    <t>unter Verdacht stehen</t>
+  </si>
+  <si>
+    <t>być podejrzanym</t>
+  </si>
+  <si>
+    <t>ein Zeichen setzen gegen A</t>
+  </si>
+  <si>
+    <t>sprzeciwić się [czemuś]</t>
+  </si>
+  <si>
+    <t>Beachtung finden</t>
+  </si>
+  <si>
+    <t>być zauważonym</t>
+  </si>
+  <si>
+    <t>Rücksicht nehmen auf A</t>
+  </si>
+  <si>
+    <t>uwzględniać [coś]</t>
+  </si>
+  <si>
+    <t>im Bau sein</t>
+  </si>
+  <si>
+    <t>być w budowie</t>
+  </si>
+  <si>
+    <t>Vorbereitungen treffen</t>
+  </si>
+  <si>
+    <t>przygotowywać</t>
+  </si>
+  <si>
+    <t>einen Auftrag bekommen</t>
+  </si>
+  <si>
+    <t>otrzymać zlecenie</t>
+  </si>
+  <si>
+    <t>sich im Bau befinden</t>
+  </si>
+  <si>
+    <t>znajdować się w budowie</t>
+  </si>
+  <si>
+    <t>in Wut geraten</t>
+  </si>
+  <si>
+    <t>wpaść we wściekłość</t>
+  </si>
+  <si>
+    <t>ein Gespräch führen</t>
+  </si>
+  <si>
+    <t>prowadzić rozmowę</t>
+  </si>
+  <si>
+    <t>einen Spaziergang machen</t>
+  </si>
+  <si>
+    <t>spacerować</t>
+  </si>
+  <si>
+    <t>Anwendung finden</t>
+  </si>
+  <si>
+    <t>znaleźć zastosowanie</t>
+  </si>
+  <si>
+    <t>Bezug nehmen auf A</t>
+  </si>
+  <si>
+    <t>powoływać się na [coś]</t>
+  </si>
+  <si>
+    <t>Abschied nehmen von D</t>
+  </si>
+  <si>
+    <t>pożegnać się z [czymś]</t>
+  </si>
+  <si>
+    <t>Anklage erheben gegen A</t>
+  </si>
+  <si>
+    <t>wnieść oskarżenie przeciwko [komuś]</t>
+  </si>
+  <si>
+    <t>Vertrauen haben zu D</t>
+  </si>
+  <si>
+    <t>mieć zaufanie do</t>
+  </si>
+  <si>
+    <t>Angaben machen</t>
+  </si>
+  <si>
+    <t>podać informacje</t>
+  </si>
+  <si>
+    <t>Anstrengungen unternehmen</t>
+  </si>
+  <si>
+    <t>czynić wysiłki</t>
+  </si>
+  <si>
+    <t>eine Antwort geben/erteilen</t>
+  </si>
+  <si>
+    <t>udzielić odpowiedzi</t>
+  </si>
+  <si>
+    <t>Anspruch erheben auf A</t>
+  </si>
+  <si>
+    <t>rościć sobie pretensje do [czegoś]</t>
+  </si>
+  <si>
+    <t>einen Anfang machen</t>
+  </si>
+  <si>
+    <t>rozpocząć</t>
+  </si>
+  <si>
+    <t>Verständnis haben für A</t>
+  </si>
+  <si>
+    <t>mieć zrozumienie dla [kogoś]</t>
+  </si>
+  <si>
+    <t>eine Vereinbarung treffen</t>
+  </si>
+  <si>
+    <t>uzgodnić</t>
+  </si>
+  <si>
+    <t>einen Versuch unternehmen/machen</t>
+  </si>
+  <si>
+    <t>spróbować</t>
+  </si>
+  <si>
+    <t>einen Wunsch haben</t>
+  </si>
+  <si>
+    <t>życzyć sobie</t>
+  </si>
+  <si>
+    <t>jdm Mut machen</t>
+  </si>
+  <si>
+    <t>dodać komuś odwagi</t>
+  </si>
+  <si>
+    <t>eine Erlaubnis erteilen/geben</t>
+  </si>
+  <si>
+    <t>pozwolić</t>
+  </si>
+  <si>
+    <t>einen Ratschlag geben/erteilen</t>
+  </si>
+  <si>
+    <t>udzielić rady, dać radę</t>
+  </si>
+  <si>
+    <t>Widerstand leisten gegen A</t>
+  </si>
+  <si>
+    <t>stawiać opór [czemuś]</t>
+  </si>
+  <si>
+    <t>Anerkennung finden</t>
+  </si>
+  <si>
+    <t>spotkać się z uznaniem</t>
+  </si>
+  <si>
+    <t>eine Frage stellen</t>
+  </si>
+  <si>
+    <t>pytać, postawić pytanie</t>
+  </si>
+  <si>
+    <t>in Betrieb setzen</t>
+  </si>
+  <si>
+    <t>uruchomić (Bet...)</t>
+  </si>
+  <si>
+    <t>jdm die Schuld geben</t>
+  </si>
+  <si>
+    <t>obarczyć kogoś winą</t>
+  </si>
+  <si>
+    <t>in Zussamenhang stehen mit D</t>
+  </si>
+  <si>
+    <t>mieć związek z [czymś]</t>
+  </si>
+  <si>
+    <t>Vorsorge treffen</t>
+  </si>
+  <si>
+    <t>czynić starania</t>
+  </si>
+  <si>
+    <t>eine Nachricht bringen/geben</t>
+  </si>
+  <si>
+    <t>powiadomić</t>
+  </si>
+  <si>
+    <t>in Bewegung setzen</t>
+  </si>
+  <si>
+    <t>uruchomić (Bew..)</t>
+  </si>
+  <si>
+    <t>Einfluss ausüben auf A</t>
+  </si>
+  <si>
+    <t>wywrzeć wpływ na [coś/kogoś]</t>
+  </si>
+  <si>
+    <t>im Irrtum sein</t>
+  </si>
+  <si>
+    <t>być w błędzie</t>
+  </si>
+  <si>
+    <t>im Gegensatz stehen zu D</t>
+  </si>
+  <si>
+    <t>pozostawać w sprzeczności z [czymś/kimś]</t>
+  </si>
+  <si>
+    <t>eine Rolle spielen</t>
+  </si>
+  <si>
+    <t>odgrywać rolę</t>
+  </si>
+  <si>
+    <t>einen Auftrag geben/erteilen</t>
+  </si>
+  <si>
+    <t>zlecić</t>
+  </si>
+  <si>
+    <t>in Gefahr bringen</t>
+  </si>
+  <si>
+    <t>narazić na niebezpieczeństwo</t>
+  </si>
+  <si>
+    <t>Hilfe leisten</t>
+  </si>
+  <si>
+    <t>udzielić pomocy</t>
+  </si>
+  <si>
+    <t>eine Anderung vor-nehmen</t>
+  </si>
+  <si>
+    <t>przeprowadzić zmianę</t>
+  </si>
+  <si>
+    <t>Kontakt aufnehmen</t>
+  </si>
+  <si>
+    <t>nawiązać kontakt</t>
+  </si>
+  <si>
+    <t>in Schutz nehmen</t>
+  </si>
+  <si>
+    <t>ochronić</t>
+  </si>
+  <si>
+    <t>in Verlegenheit/Verwirrung bringen</t>
+  </si>
+  <si>
+    <t>wprawić w zakłopotanie</t>
+  </si>
+  <si>
+    <t>außer Frage stehen</t>
+  </si>
+  <si>
+    <t>nie ulegać wątpliwości</t>
+  </si>
+  <si>
+    <t>Respekt haben vor D</t>
+  </si>
+  <si>
+    <t>mieć respekt przed [czymś]/poważanie dla [czegoś]</t>
+  </si>
+  <si>
+    <t>eine Entscheidung treffen</t>
+  </si>
+  <si>
+    <t>zdecydować</t>
+  </si>
+  <si>
+    <t>in Kontakt stehen mit</t>
+  </si>
+  <si>
+    <t>pozostawać w kontakcie z [kimś]</t>
+  </si>
+  <si>
+    <t>Druck ausüben auf A</t>
+  </si>
+  <si>
+    <t>wywierać nacisk na [coś/kogoś]</t>
+  </si>
+  <si>
+    <t>zum Ausdruck bringen/kommen</t>
+  </si>
+  <si>
+    <t>wyrazić</t>
+  </si>
+  <si>
+    <t>einen Kompromiss schließen</t>
+  </si>
+  <si>
+    <t>zawrzeć kompromis</t>
+  </si>
+  <si>
+    <t>in Verlegenheit/Verwirrung geraten</t>
+  </si>
+  <si>
+    <t>wpaść w zakłopotanie</t>
+  </si>
+  <si>
+    <t>eine Korrektur vornehmen</t>
+  </si>
+  <si>
+    <t>poprawić, skorygować</t>
+  </si>
+  <si>
+    <t>einen Anspruch erheben auf A</t>
+  </si>
+  <si>
+    <t>wysuwać roszczenia [w stosunku do]</t>
+  </si>
+  <si>
+    <t>robić wrażenie na</t>
+  </si>
+  <si>
+    <t>eine Überraschung bereiten</t>
+  </si>
+  <si>
+    <t>sprawić niespodziankę</t>
+  </si>
+  <si>
+    <t>etw unter Strafe stellen</t>
+  </si>
+  <si>
+    <t>karać coś</t>
+  </si>
+  <si>
+    <t>Verwendung finden</t>
+  </si>
+  <si>
+    <t>znajdować zastosowanie (V)</t>
+  </si>
+  <si>
+    <t>Respekt genießen</t>
+  </si>
+  <si>
+    <t>być respektowanym</t>
+  </si>
+  <si>
+    <t>zur Einsicht gelangen</t>
+  </si>
+  <si>
+    <t>pojąć coś</t>
+  </si>
+  <si>
+    <t>zur Auswahl stehen</t>
+  </si>
+  <si>
+    <t>być do wyboru</t>
+  </si>
+  <si>
+    <t>wątpić w [coś]</t>
+  </si>
+  <si>
+    <t>eine Freude bereiten</t>
+  </si>
+  <si>
+    <t>sprawić radość</t>
+  </si>
+  <si>
+    <t>die Hoffnung haben</t>
+  </si>
+  <si>
+    <t>mieć nadzieję</t>
+  </si>
+  <si>
+    <t>eine Rede halten</t>
+  </si>
+  <si>
+    <t>przemawiać</t>
+  </si>
+  <si>
+    <t>eine Ahnung haben</t>
+  </si>
+  <si>
+    <t>mieć przeczucie, domyślać się</t>
+  </si>
+  <si>
+    <t>zur Verfügung stellen</t>
+  </si>
+  <si>
+    <t>postawić do dyspozycji</t>
+  </si>
+  <si>
+    <t>vor der Frage stehen</t>
+  </si>
+  <si>
+    <t>stać przed problemem/pytaniem</t>
+  </si>
+  <si>
+    <t>einen Kuss geben</t>
+  </si>
+  <si>
+    <t>całować</t>
+  </si>
+  <si>
+    <t>in Vergessenheit geraten</t>
+  </si>
+  <si>
+    <t>ulec zapomnieniu</t>
+  </si>
+  <si>
+    <t>Grüße ausrichten</t>
+  </si>
+  <si>
+    <t>przekazać pozdrowienia</t>
+  </si>
+  <si>
+    <t>in Armut geraten</t>
+  </si>
+  <si>
+    <t>zubożeć</t>
+  </si>
+  <si>
+    <t>eine Wirkung haben/ausüben</t>
+  </si>
+  <si>
+    <t>działać/wywierać działanie</t>
+  </si>
+  <si>
+    <t>Angst haben vor D</t>
+  </si>
+  <si>
+    <t>bać się [czegoś]</t>
+  </si>
+  <si>
+    <t>in die Frage kommen</t>
+  </si>
+  <si>
+    <t>wchodzić w rachubę</t>
+  </si>
+  <si>
+    <t>eine Verabredung treffen</t>
+  </si>
+  <si>
+    <t>zawrzeć porozumienie</t>
+  </si>
+  <si>
+    <t>Interesse haben an D</t>
+  </si>
+  <si>
+    <t>interesować się [czymś]</t>
+  </si>
+  <si>
+    <t>ein Risiko ein-gehen</t>
+  </si>
+  <si>
+    <t>zaryzykować</t>
+  </si>
+  <si>
+    <t>Widerspruch erheben</t>
+  </si>
+  <si>
+    <t>wysunąć sprzeciw</t>
+  </si>
+  <si>
+    <t>in Erwägung ziehen</t>
+  </si>
+  <si>
+    <t>rozważyć</t>
+  </si>
+  <si>
+    <t>Protokoll führen</t>
+  </si>
+  <si>
+    <t>protokołować</t>
+  </si>
+  <si>
+    <t>wziąć udział w [czymś]</t>
+  </si>
+  <si>
+    <t>in Erfüllung gehen</t>
+  </si>
+  <si>
+    <t>spełnić się</t>
+  </si>
+  <si>
+    <t>einen Antrag stellen auf A</t>
+  </si>
+  <si>
+    <t>postawić wniosek o</t>
+  </si>
+  <si>
+    <t>Mut haben</t>
+  </si>
+  <si>
+    <t>mieć odwagę</t>
+  </si>
+  <si>
+    <t>einen Entschluss fassen</t>
+  </si>
+  <si>
+    <t>zdecydować się</t>
+  </si>
+  <si>
+    <t>zur Ansicht gelangen</t>
+  </si>
+  <si>
+    <t>dojść do poglądu</t>
+  </si>
+  <si>
+    <t>sich Mühe geben</t>
+  </si>
+  <si>
+    <t>zadać sobie trud</t>
+  </si>
+  <si>
+    <t>zur Verfügung stehen</t>
+  </si>
+  <si>
+    <t>być do dyspozycji</t>
+  </si>
+  <si>
+    <t>in Gebrauch sein</t>
+  </si>
+  <si>
+    <t>być w użyciu</t>
+  </si>
+  <si>
+    <t>einen Beitrag leisten zu D</t>
+  </si>
+  <si>
+    <t>przyczynić się do [czegoś]</t>
+  </si>
+  <si>
+    <t>zum Abschluss bringen/kommen</t>
+  </si>
+  <si>
+    <t>eine Forderung stellen/erheben</t>
+  </si>
+  <si>
+    <t>postawić/wysunąć żądanie</t>
+  </si>
+  <si>
+    <t>Protest erheben</t>
+  </si>
+  <si>
+    <t>protestować</t>
+  </si>
+  <si>
+    <t>Mitleid haben mit D</t>
+  </si>
+  <si>
+    <t>współczuć [komuś]</t>
+  </si>
+  <si>
+    <t>Hass haben auf A</t>
+  </si>
+  <si>
+    <t>żywić nienawiść do [kogoś/czegoś]</t>
+  </si>
+  <si>
+    <t>poinformować kogoś o [czymś]</t>
   </si>
 </sst>
 </file>
@@ -153,20 +834,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -190,6 +859,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -484,19 +1155,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="28.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.69921875" customWidth="1"/>
     <col min="3" max="3" width="33.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6">
+    <row r="1" spans="1:5" ht="28.2" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.6">
+    <row r="2" spans="1:5" ht="28.2" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -514,7 +1185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" ht="28.2" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -523,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27.6">
+    <row r="4" spans="1:5" ht="28.2" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -532,7 +1203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27.6">
+    <row r="5" spans="1:5" ht="28.2" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -541,103 +1212,1398 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A44" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A52" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A54" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A55" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A60" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A64" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A65" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A66" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A67" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A69" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A70" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A72" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A73" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A74" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A75" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A77" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A78" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A79" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A80" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A81" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A82" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A85" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A86" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A87" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A88" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A89" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A91" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A92" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A93" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A94" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A95" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A96" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A97" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A98" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A99" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A100" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A102" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="12"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A103" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A104" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A105" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A106" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A107" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A108" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" s="12"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A109" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A110" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A112" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A113" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A114" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A115" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A116" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A117" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A118" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A119" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A120" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A121" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A122" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A123" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A124" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A125" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A126" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A127" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A128" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A129" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A130" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A131" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A132" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="28.2" customHeight="1">
+      <c r="A133" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="27.6">
-      <c r="A8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="27.6">
-      <c r="A10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27.6">
-      <c r="A15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27.6">
-      <c r="A16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="41.4">
-      <c r="A17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>33</v>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="13" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
